--- a/inst/demo/form.xlsx
+++ b/inst/demo/form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\GitHub\HighFrequencyChecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\GitHub\HighFrequencyChecks\inst\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ED425B-6A52-48AA-97BA-763869B536B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58563DC6-4AC5-40FE-96FB-B9C9C33794B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19760" xr2:uid="{2D7CC885-6DBB-4B98-A2F9-7768F6E2AF6E}"/>
   </bookViews>
@@ -66,15 +66,9 @@
     <t>function</t>
   </si>
   <si>
-    <t>chk1di_GIS_site</t>
-  </si>
-  <si>
     <t>check that the survey is done within a **`r buffer`** meter buffer from a sample point</t>
   </si>
   <si>
-    <t>chk1dii_GIS_Xm</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -84,114 +78,63 @@
     <t>Duplicates in unique ID</t>
   </si>
   <si>
-    <t>chk2b_unique_id</t>
-  </si>
-  <si>
     <t>Dates mistakes in the survey</t>
   </si>
   <si>
-    <t>chk3a_date_mistake</t>
-  </si>
-  <si>
     <t>Surveys that do not end on the same day as they started</t>
   </si>
   <si>
     <t>Surveys which end before they start</t>
   </si>
   <si>
-    <t>chk3b_date_mistake</t>
-  </si>
-  <si>
     <t>Surveys made before the first day of data collection (**`r startdate`**)</t>
   </si>
   <si>
     <t>Surveys made in the future</t>
   </si>
   <si>
-    <t>chk3c_date_mistake</t>
-  </si>
-  <si>
-    <t>chk3d_date_mistake</t>
-  </si>
-  <si>
     <t>Durations of surveys</t>
   </si>
   <si>
-    <t>chk5a_duration</t>
-  </si>
-  <si>
     <t>Enumerators who made a survey below **`r mindur`** minutes</t>
   </si>
   <si>
-    <t>chk5b_duration_Xmin</t>
-  </si>
-  <si>
     <t>2. Productivity</t>
   </si>
   <si>
     <t>Number of survey per day of data collection</t>
   </si>
   <si>
-    <t>chk7ai_productivity</t>
-  </si>
-  <si>
     <t>Number of survey per day of data collection per consent status</t>
   </si>
   <si>
-    <t>chk7bi_nb_status</t>
-  </si>
-  <si>
     <t>Tracking sheet</t>
   </si>
   <si>
-    <t>chk7bii_tracking</t>
-  </si>
-  <si>
     <t>3. Checks on the surveys content</t>
   </si>
   <si>
     <t>Number of distinct values per questions</t>
   </si>
   <si>
-    <t>chk4bii_distinct_values</t>
-  </si>
-  <si>
     <t>Number of other distinct values (for the questions with a possibility of other)</t>
   </si>
   <si>
-    <t>chk4biv_others_values</t>
-  </si>
-  <si>
     <t>4. Enumerators checks</t>
   </si>
   <si>
     <t>Percentage of survey per consent status by enumerator</t>
   </si>
   <si>
-    <t>chk6a_refusal</t>
-  </si>
-  <si>
     <t>Average interview duration by enumerator</t>
   </si>
   <si>
-    <t>chk6b_duration</t>
-  </si>
-  <si>
     <t>Number of surveys per day by enumerator</t>
   </si>
   <si>
-    <t>chk6c_nb_survey</t>
-  </si>
-  <si>
     <t>Surveyors with very low or high productivity</t>
   </si>
   <si>
-    <t>chk6f_productivity</t>
-  </si>
-  <si>
-    <t>chk6g_question_less_X_answers</t>
-  </si>
-  <si>
     <t># Loads needed datasets</t>
   </si>
   <si>
@@ -484,6 +427,63 @@
   </si>
   <si>
     <t># disable scientific notation</t>
+  </si>
+  <si>
+    <t>isInterviewInTheCorrectSite</t>
+  </si>
+  <si>
+    <t>isInterviewAtTheSamplePoint</t>
+  </si>
+  <si>
+    <t>isUniqueIDDuplicated</t>
+  </si>
+  <si>
+    <t>isSurveyOnMoreThanADay</t>
+  </si>
+  <si>
+    <t>isSurveyEndBeforeItStarts</t>
+  </si>
+  <si>
+    <t>isSurveyStartedBeforeTheAssessment</t>
+  </si>
+  <si>
+    <t>isSurveyMadeInTheFuture</t>
+  </si>
+  <si>
+    <t>assessmentDuration</t>
+  </si>
+  <si>
+    <t>assessmentProductivity</t>
+  </si>
+  <si>
+    <t>assessmentDailyValidSurveys</t>
+  </si>
+  <si>
+    <t>assessmentTrackingSheet</t>
+  </si>
+  <si>
+    <t>surveyDistinctValues</t>
+  </si>
+  <si>
+    <t>surveyOtherValues</t>
+  </si>
+  <si>
+    <t>enumeratorSurveysConsent</t>
+  </si>
+  <si>
+    <t>enumeratorSurveysDuration</t>
+  </si>
+  <si>
+    <t>enumeratorProductivity</t>
+  </si>
+  <si>
+    <t>enumeratorProductivityOutliers</t>
+  </si>
+  <si>
+    <t>enumeratorIsLazy</t>
+  </si>
+  <si>
+    <t>isInterviewTooShort</t>
   </si>
 </sst>
 </file>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536E5E13-C4F4-4423-9F30-9428EF47DE40}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -888,99 +888,99 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -990,277 +990,277 @@
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1270,46 +1270,46 @@
     </row>
     <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1354,13 +1354,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1368,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1376,13 +1376,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -1398,13 +1398,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -1412,7 +1412,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -1428,13 +1428,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -1442,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -1450,13 +1450,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -1464,7 +1464,7 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -1472,13 +1472,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -1486,7 +1486,7 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -1494,13 +1494,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -1508,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -1516,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1524,14 +1524,14 @@
         <v>12</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -1539,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -1547,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -1555,13 +1555,13 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -1569,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -1577,7 +1577,7 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -1585,13 +1585,13 @@
         <v>12</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -1599,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -1607,13 +1607,13 @@
         <v>12</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -1621,7 +1621,7 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -1629,13 +1629,13 @@
         <v>12</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -1643,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -1651,7 +1651,7 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -1659,16 +1659,16 @@
         <v>12</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="C77" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E77" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -1676,7 +1676,7 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -1684,16 +1684,16 @@
         <v>12</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D79" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="E79" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -1701,7 +1701,7 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -1709,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -1717,13 +1717,13 @@
         <v>12</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -1731,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -1739,13 +1739,13 @@
         <v>12</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="C84" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -1753,7 +1753,7 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -1761,13 +1761,13 @@
         <v>12</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="C86" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -1775,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -1783,13 +1783,13 @@
         <v>12</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="C88" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" t="s">
         <v>127</v>
-      </c>
-      <c r="E88" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -1797,7 +1797,7 @@
         <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -1805,13 +1805,13 @@
         <v>12</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
